--- a/monthly_sales.xlsx
+++ b/monthly_sales.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21601"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27531"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Excel Files\tables\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\nbettadapura\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D9F573D5-0C91-470C-94CA-5C4B7DF0DA1D}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A928DC83-74AD-44C9-8D84-9F17683E334F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="19440" windowHeight="11040" xr2:uid="{46D860E2-B01E-41BA-8942-9F7AD26447D8}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{46D860E2-B01E-41BA-8942-9F7AD26447D8}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -23,7 +23,12 @@
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
         <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
         <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -163,16 +168,15 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -353,9 +357,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 2013 - 2022 Theme">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2013 - 2022">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -393,7 +397,7 @@
         <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2013 - 2022">
       <a:majorFont>
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -499,7 +503,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2013 - 2022">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -641,7 +645,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office 2013 - 2022 Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -655,14 +659,14 @@
       <selection activeCell="E9" sqref="E9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="17.85546875" customWidth="1"/>
-    <col min="2" max="2" width="12.28515625" customWidth="1"/>
-    <col min="4" max="4" width="10.28515625" customWidth="1"/>
+    <col min="1" max="1" width="17.88671875" customWidth="1"/>
+    <col min="2" max="2" width="12.33203125" customWidth="1"/>
+    <col min="4" max="4" width="10.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" ht="21" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:8" ht="21" x14ac:dyDescent="0.4">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -688,7 +692,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:8" ht="21" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:8" ht="21" x14ac:dyDescent="0.4">
       <c r="A2" s="2" t="s">
         <v>8</v>
       </c>
@@ -714,7 +718,7 @@
         <v>174</v>
       </c>
     </row>
-    <row r="3" spans="1:8" ht="21" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:8" ht="21" x14ac:dyDescent="0.4">
       <c r="A3" s="4" t="s">
         <v>9</v>
       </c>
@@ -736,7 +740,7 @@
         <v>148</v>
       </c>
     </row>
-    <row r="4" spans="1:8" ht="21" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:8" ht="21" x14ac:dyDescent="0.4">
       <c r="A4" s="2" t="s">
         <v>10</v>
       </c>
@@ -758,7 +762,7 @@
       </c>
       <c r="H4" s="3"/>
     </row>
-    <row r="5" spans="1:8" ht="21" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:8" ht="21" x14ac:dyDescent="0.4">
       <c r="A5" s="4" t="s">
         <v>11</v>
       </c>
@@ -784,71 +788,71 @@
         <v>136</v>
       </c>
     </row>
-    <row r="6" spans="1:8" ht="21" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:8" ht="21" x14ac:dyDescent="0.4">
       <c r="A6" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="B6" s="6">
+      <c r="B6" s="3">
         <v>259</v>
       </c>
-      <c r="C6" s="6"/>
-      <c r="D6" s="6">
+      <c r="C6" s="3"/>
+      <c r="D6" s="3">
         <v>25</v>
       </c>
-      <c r="E6" s="6"/>
-      <c r="F6" s="6">
+      <c r="E6" s="3"/>
+      <c r="F6" s="3">
         <v>254</v>
       </c>
-      <c r="G6" s="6">
+      <c r="G6" s="3">
         <v>168</v>
       </c>
-      <c r="H6" s="6">
+      <c r="H6" s="3">
         <v>136</v>
       </c>
     </row>
-    <row r="7" spans="1:8" ht="21" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:8" ht="21" x14ac:dyDescent="0.4">
       <c r="A7" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="B7" s="6">
+      <c r="B7" s="3">
         <v>45</v>
       </c>
-      <c r="C7" s="6"/>
-      <c r="D7" s="6">
+      <c r="C7" s="3"/>
+      <c r="D7" s="3">
         <v>25</v>
       </c>
-      <c r="E7" s="6"/>
-      <c r="F7" s="6">
+      <c r="E7" s="3"/>
+      <c r="F7" s="3">
         <v>189</v>
       </c>
-      <c r="G7" s="6">
+      <c r="G7" s="3">
         <v>168</v>
       </c>
-      <c r="H7" s="6">
+      <c r="H7" s="3">
         <v>136</v>
       </c>
     </row>
-    <row r="8" spans="1:8" ht="21" x14ac:dyDescent="0.35">
-      <c r="A8" s="7" t="s">
+    <row r="8" spans="1:8" ht="21" x14ac:dyDescent="0.4">
+      <c r="A8" s="6" t="s">
         <v>14</v>
       </c>
-      <c r="B8" s="8">
+      <c r="B8" s="7">
         <v>78</v>
       </c>
-      <c r="C8" s="8"/>
-      <c r="D8" s="8">
+      <c r="C8" s="7"/>
+      <c r="D8" s="7">
         <v>159</v>
       </c>
-      <c r="E8" s="8">
+      <c r="E8" s="7">
         <v>258</v>
       </c>
-      <c r="F8" s="8">
+      <c r="F8" s="7">
         <v>189</v>
       </c>
-      <c r="G8" s="8">
+      <c r="G8" s="7">
         <v>168</v>
       </c>
-      <c r="H8" s="8">
+      <c r="H8" s="7">
         <v>136</v>
       </c>
     </row>
